--- a/data/trans_bre/P3A_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R2-Provincia-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-45,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>65,89%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,39%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,78%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,44; 0,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,85; 5,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,41; 3,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,03; 3,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,18; 44,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,97; 336,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,58; 355,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,66; 133,98</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>106,09%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>70,21%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,32%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,1; 1,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,05; 4,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,74; 2,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,92; 3,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,81; 75,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,37; 371,59</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,15; 436,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,03; 149,14</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,84</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,34%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,22%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,97%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,07; 3,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,41; 3,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,91; 1,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,7; 5,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,46; 118,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,55; 80,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,08; 135,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,9; 116,75</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,88</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,76</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,38%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>157,99%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-33,97%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,08; 4,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,99; 3,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,09; 4,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,83; 0,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,52; 215,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,47; 180,06</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,39; 800,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,57; 11,13</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,22%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,53%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,24%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,79%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-5,35; 0,11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; 3,72</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 2,73</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,0; 2,57</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-61,71; 146,23</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,77; 142,46</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,01</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,09</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,51%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-53,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,82%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,95%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,55; -0,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,75; -0,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,55; 6,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 6,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,69; -0,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-78,79; -2,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,69; 395,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,65; 141,83</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,08</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,85%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>68,27%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,11%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 1,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,36; 4,28</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,26; 2,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 2,24</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,39; 84,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,42; 217,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,65; 99,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,44; 48,74</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,06</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,41%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,92%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>143,13%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,85; 0,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,65; 3,12</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,77; 1,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,71; 3,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,44; 7,55</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,25; 131,58</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,72; 89,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,96; 507,07</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,1%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,02%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,46%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,27%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; -0,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,23; 1,79</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,19; 1,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,28; 2,21</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,95; -0,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,08; 53,81</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,53; 67,82</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,48; 61,47</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P3A_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P3A_R2-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 0,83</t>
+          <t>-5,5; 1,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 5,11</t>
+          <t>-1,14; 5,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 3,87</t>
+          <t>-2,05; 3,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 3,98</t>
+          <t>-2,22; 3,82</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-83,18; 44,31</t>
+          <t>-84,27; 49,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-34,97; 336,32</t>
+          <t>-38,69; 370,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-69,58; 355,04</t>
+          <t>-65,33; 323,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-30,66; 133,98</t>
+          <t>-34,18; 118,81</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 1,92</t>
+          <t>-2,71; 2,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 4,84</t>
+          <t>-0,05; 4,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 2,91</t>
+          <t>-0,71; 3,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,92; 3,36</t>
+          <t>-1,26; 3,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-58,81; 75,75</t>
+          <t>-53,98; 95,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-9,37; 371,59</t>
+          <t>-12,94; 350,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-41,15; 436,73</t>
+          <t>-48,76; 438,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 149,14</t>
+          <t>-25,44; 164,97</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 3,08</t>
+          <t>-3,22; 3,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 3,11</t>
+          <t>-4,44; 2,81</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 1,45</t>
+          <t>-3,1; 1,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 5,88</t>
+          <t>-0,6; 5,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,46; 118,79</t>
+          <t>-55,76; 129,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-57,55; 80,37</t>
+          <t>-56,26; 75,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-82,08; 135,29</t>
+          <t>-84,45; 128,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,9; 116,75</t>
+          <t>-8,43; 115,12</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,8</t>
+          <t>-1,19; 4,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 3,15</t>
+          <t>-2,26; 3,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 4,82</t>
+          <t>-0,11; 4,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 0,67</t>
+          <t>-7,94; 0,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-26,52; 215,06</t>
+          <t>-27,39; 202,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,47; 180,06</t>
+          <t>-51,2; 186,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,39; 800,93</t>
+          <t>-34,14; 833,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-65,57; 11,13</t>
+          <t>-67,63; 13,68</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 0,11</t>
+          <t>-5,5; 0,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 3,72</t>
+          <t>-5,16; 3,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,73</t>
+          <t>-1,34; 2,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 2,57</t>
+          <t>-2,71; 2,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>-100,0; 140,39</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-68,45; 146,44</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-61,71; 146,23</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-57,77; 142,46</t>
+          <t>-56,72; 143,04</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-6,55; -0,47</t>
+          <t>-6,35; -0,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-9,75; -0,67</t>
+          <t>-9,39; -0,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 6,37</t>
+          <t>-0,81; 6,65</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 6,61</t>
+          <t>-0,04; 6,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-92,69; -0,72</t>
+          <t>-92,55; 10,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-78,79; -2,58</t>
+          <t>-77,61; 1,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-30,69; 395,64</t>
+          <t>-29,85; 404,16</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 141,83</t>
+          <t>-1,99; 142,45</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 1,72</t>
+          <t>-2,57; 1,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 4,28</t>
+          <t>-0,36; 4,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 2,43</t>
+          <t>-2,07; 2,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 2,24</t>
+          <t>-4,53; 2,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-56,39; 84,54</t>
+          <t>-59,62; 70,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 217,34</t>
+          <t>-12,63; 204,09</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-46,65; 99,16</t>
+          <t>-41,32; 93,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-60,44; 48,74</t>
+          <t>-62,26; 44,75</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 0,22</t>
+          <t>-3,96; 0,38</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,12</t>
+          <t>-0,65; 3,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 1,78</t>
+          <t>-1,83; 1,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,71; 3,59</t>
+          <t>0,78; 3,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-61,44; 7,55</t>
+          <t>-62,36; 16,07</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 131,58</t>
+          <t>-16,73; 145,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-46,72; 89,45</t>
+          <t>-49,3; 83,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>29,96; 507,07</t>
+          <t>34,95; 473,13</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,9; -0,01</t>
+          <t>-1,77; -0,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 1,79</t>
+          <t>-0,29; 1,78</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 1,43</t>
+          <t>-0,21; 1,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,21</t>
+          <t>-0,09; 2,2</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-40,95; -0,83</t>
+          <t>-39,46; 1,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 53,81</t>
+          <t>-7,31; 53,72</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 67,82</t>
+          <t>-7,37; 73,74</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 61,47</t>
+          <t>-1,05; 60,26</t>
         </is>
       </c>
     </row>
